--- a/09 - БДСУММ/Assignm13.xlsx
+++ b/09 - БДСУММ/Assignm13.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="9">
   <si>
     <t>Артикул</t>
   </si>
@@ -63,14 +63,14 @@
   <si>
     <t>Восток</t>
   </si>
+  <si>
+    <t>ФОРМУЛА  =БДСУММ(A1:D176;"Объем продаж";H1:K3)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₸_-;\-* #,##0.00\ _₸_-;_-* &quot;-&quot;??\ _₸_-;_-@_-"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,12 +90,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF2D2F31"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -136,9 +136,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -146,11 +145,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -465,7 +463,7 @@
   <dimension ref="A1:K176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,8 +472,7 @@
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="8.5546875" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
+    <col min="8" max="9" width="9.5546875" customWidth="1"/>
     <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -509,7 +506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -522,18 +519,16 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="str">
-        <f>A2</f>
-        <v>Север</v>
-      </c>
-      <c r="I2" s="4">
-        <f>B3</f>
+      <c r="H2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5">
         <v>234514</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -546,8 +541,12 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>234514</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
@@ -564,6 +563,10 @@
       <c r="D4">
         <v>2</v>
       </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -578,10 +581,6 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="I5" s="5" t="e">
-        <f>DSUM(A1:D176,C:C,H1:K2)</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -596,6 +595,10 @@
       <c r="D6">
         <v>3</v>
       </c>
+      <c r="H6">
+        <f>DSUM(A1:D176,"Объем продаж",H1:K3)</f>
+        <v>2983</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -623,6 +626,9 @@
       </c>
       <c r="D8">
         <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">

--- a/09 - БДСУММ/Assignm13.xlsx
+++ b/09 - БДСУММ/Assignm13.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="12">
   <si>
     <t>Артикул</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>ФОРМУЛА  =БДСУММ(A1:D176;"Объем продаж";H1:K3)</t>
+  </si>
+  <si>
+    <t>БДСУММА</t>
+  </si>
+  <si>
+    <t>БСЧЕТА</t>
+  </si>
+  <si>
+    <t>ФОРМУЛА =БСЧЁТА(A1:D176;1;H1:K3)</t>
   </si>
 </sst>
 </file>
@@ -463,7 +472,7 @@
   <dimension ref="A1:K176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,7 +480,8 @@
     <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.5546875" customWidth="1"/>
+    <col min="5" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
     <col min="8" max="9" width="9.5546875" customWidth="1"/>
     <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
@@ -595,7 +605,10 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="4">
         <f>DSUM(A1:D176,"Объем продаж",H1:K3)</f>
         <v>2983</v>
       </c>
@@ -613,6 +626,13 @@
       <c r="D7">
         <v>3</v>
       </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4">
+        <f>DCOUNTA(A1:D176,1,H1:K3)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -643,6 +663,9 @@
       </c>
       <c r="D9">
         <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">

--- a/09 - БДСУММ/Assignm13.xlsx
+++ b/09 - БДСУММ/Assignm13.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="18">
   <si>
     <t>Артикул</t>
   </si>
@@ -74,6 +74,24 @@
   </si>
   <si>
     <t>ФОРМУЛА =БСЧЁТА(A1:D176;1;H1:K3)</t>
+  </si>
+  <si>
+    <t>ДСРЗНАЧ</t>
+  </si>
+  <si>
+    <t>ДМИН</t>
+  </si>
+  <si>
+    <t>ДМАКС</t>
+  </si>
+  <si>
+    <t>ФОРМУЛА =ДСРЗНАЧ(A1:D176;3;H1:K3)</t>
+  </si>
+  <si>
+    <t>ФОРМУЛА =ДМИН($A$1:$D$176;3;H1:K3)</t>
+  </si>
+  <si>
+    <t>ФОРМУЛА =ДМАКС($A$1:$D$176;3;$H$1:$K$3)</t>
   </si>
 </sst>
 </file>
@@ -148,13 +166,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -472,7 +491,7 @@
   <dimension ref="A1:K176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,8 +666,12 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
-        <v>8</v>
+      <c r="G8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4">
+        <f>DAVERAGE(A1:D176,3,H1:K3)</f>
+        <v>248.58333333333334</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -664,8 +687,12 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="J9" t="s">
-        <v>11</v>
+      <c r="G9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="4">
+        <f>DMIN($A$1:$D$176,3,H1:K3)</f>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -681,6 +708,13 @@
       <c r="D10">
         <v>2</v>
       </c>
+      <c r="G10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="4">
+        <f>DMAX($A$1:$D$176,3,$H$1:$K$3)</f>
+        <v>309</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -766,7 +800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -780,7 +814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -794,7 +828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -808,7 +842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -821,8 +855,11 @@
       <c r="D20">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -835,8 +872,11 @@
       <c r="D21">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -849,8 +889,11 @@
       <c r="D22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -863,8 +906,11 @@
       <c r="D23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -877,8 +923,11 @@
       <c r="D24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -892,7 +941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -906,7 +955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -920,7 +969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -934,7 +983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -948,7 +997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -962,7 +1011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -976,7 +1025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
